--- a/biology/Histoire de la zoologie et de la botanique/Georg_Heinrich_von_Langsdorff/Georg_Heinrich_von_Langsdorff.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_Heinrich_von_Langsdorff/Georg_Heinrich_von_Langsdorff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Georg Heinrich von Langsdorff, né à Wöllstein en électorat de Mayence le 18 avril 1774, mort à Fribourg en grand-duché de Bade le 29 juin 1852, est un médecin, naturaliste et explorateur (ethnographe) allemand qui est aussi diplomate pour la Russie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en Russie où son nom est russifié en Grigori Ivanovitch von Langsdorff. Il est membre et correspondant de l'Académie impériale des sciences et un médecin reconnu, diplômé de l'Université de Göttingen en Allemagne.
 Langsdorff participe comme naturaliste et médecin à la grande expédition scientifique russe autour du monde dirigée par Johann Adam von Krusenstern de 1803 à 1806. Il quitte l'expédition au Kamtchatka pour explorer les Aléoutiennes, Kodiak et Sitka. Il repart de San Francisco par bateau vers la Sibérie puis de là, gagne Saint-Pétersbourg par voie terrestre où il arrive en 1808.
@@ -545,7 +559,9 @@
           <t>L'expédition Langsdorff</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1821, il propose au tsar Alexandre Ier et à l'Académie impériale de mener une expédition ambitieuse d'exploration scientifique de São Paulo vers Pará, dans la forêt amazonienne, par les fleuves.
 En mars 1822, il retourne à Rio en compagnie de plusieurs scientifiques : l'entomologiste français Édouard Ménétries (1802-1861), le botaniste allemand Ludwig Riedel (1790-1861) le naturaliste Christian Hasse, l'astronome Nester Roubtsov (pt) (1799-1874). À ceux-ci s'ajoutent plusieurs artistes : les Allemands Johann Moritz Rugendas (1802-1858) et Johann Moritz Rugendas (1802-1858), les Français Adrien Taunay (1803-1828) et Hercule Florence (1804-1879).
@@ -580,7 +596,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) G. H. Von Langsdorff, Voyages and travels in various parts of the world during the years 1803,1804,1805,1806 and 1807, London, Henry Colburn, 1813, 442 p. (lire en ligne)</t>
         </is>
